--- a/INDIVIDUALES/productor 5.xlsx
+++ b/INDIVIDUALES/productor 5.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Porcentajes" sheetId="3" r:id="rId3"/>
     <sheet name="Intervalo " sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2220,7 +2223,286 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="3810000"/>
+          <a:ext cx="7629525" cy="4585832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cantidad inicial pollos"/>
+      <sheetName val="cantidad pollos muertos"/>
+      <sheetName val="Estadisticas Descriptivas"/>
+      <sheetName val="porcentaje de mortalidad"/>
+      <sheetName val="regiones de credibilidad bin"/>
+      <sheetName val="Intervalos finales productores"/>
+      <sheetName val="Hoja5"/>
+      <sheetName val="Hoja6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Inferior</v>
+          </cell>
+          <cell r="C53">
+            <v>1.6971403730252702E-2</v>
+          </cell>
+          <cell r="D53">
+            <v>2.6696119695791918E-2</v>
+          </cell>
+          <cell r="E53">
+            <v>4.6880919492669391E-2</v>
+          </cell>
+          <cell r="F53">
+            <v>4.1377273272405438E-2</v>
+          </cell>
+          <cell r="G53">
+            <v>4.9055701752429751E-2</v>
+          </cell>
+          <cell r="H53">
+            <v>1.4837902976497522E-2</v>
+          </cell>
+          <cell r="I53">
+            <v>2.5720786424973059E-2</v>
+          </cell>
+          <cell r="J53">
+            <v>1.5450609498083745E-2</v>
+          </cell>
+          <cell r="K53">
+            <v>1.0020640545174228E-2</v>
+          </cell>
+          <cell r="L53">
+            <v>4.679452741042172E-2</v>
+          </cell>
+          <cell r="M53">
+            <v>1.3622426464357127E-2</v>
+          </cell>
+          <cell r="N53">
+            <v>1.8219455975166967E-2</v>
+          </cell>
+          <cell r="O53">
+            <v>3.7190174834541317E-2</v>
+          </cell>
+          <cell r="P53">
+            <v>1.5144844396790945E-2</v>
+          </cell>
+          <cell r="Q53">
+            <v>1.1511326666165661E-2</v>
+          </cell>
+          <cell r="R53">
+            <v>1.8219455975166967E-2</v>
+          </cell>
+          <cell r="S53">
+            <v>2.132678533276482E-2</v>
+          </cell>
+          <cell r="T53">
+            <v>2.132678533276482E-2</v>
+          </cell>
+          <cell r="U53">
+            <v>2.7617002704458073E-2</v>
+          </cell>
+          <cell r="V53">
+            <v>2.132678533276482E-2</v>
+          </cell>
+          <cell r="W53">
+            <v>1.0614994173702156E-2</v>
+          </cell>
+          <cell r="X53">
+            <v>4.1742763264843691E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Superior</v>
+          </cell>
+          <cell r="C54">
+            <v>2.8171041032818422E-2</v>
+          </cell>
+          <cell r="D54">
+            <v>3.9772663557423593E-2</v>
+          </cell>
+          <cell r="E54">
+            <v>6.357589266390129E-2</v>
+          </cell>
+          <cell r="F54">
+            <v>5.7190956666232307E-2</v>
+          </cell>
+          <cell r="G54">
+            <v>6.7545953319678831E-2</v>
+          </cell>
+          <cell r="H54">
+            <v>2.2222122786085929E-2</v>
+          </cell>
+          <cell r="I54">
+            <v>3.8580275853543289E-2</v>
+          </cell>
+          <cell r="J54">
+            <v>2.5772387588925971E-2</v>
+          </cell>
+          <cell r="K54">
+            <v>1.861410975446065E-2</v>
+          </cell>
+          <cell r="L54">
+            <v>6.4912938619603122E-2</v>
+          </cell>
+          <cell r="M54">
+            <v>2.3404517437229044E-2</v>
+          </cell>
+          <cell r="N54">
+            <v>2.9297588457250057E-2</v>
+          </cell>
+          <cell r="O54">
+            <v>5.2286779639641345E-2</v>
+          </cell>
+          <cell r="P54">
+            <v>2.5378811905913401E-2</v>
+          </cell>
+          <cell r="Q54">
+            <v>2.0620189217804175E-2</v>
+          </cell>
+          <cell r="R54">
+            <v>2.9297588457250057E-2</v>
+          </cell>
+          <cell r="S54">
+            <v>3.3183614281491081E-2</v>
+          </cell>
+          <cell r="T54">
+            <v>3.3183614281491081E-2</v>
+          </cell>
+          <cell r="U54">
+            <v>4.0880049339876878E-2</v>
+          </cell>
+          <cell r="V54">
+            <v>3.3183614281491081E-2</v>
+          </cell>
+          <cell r="W54">
+            <v>1.9418466239456533E-2</v>
+          </cell>
+          <cell r="X54">
+            <v>5.5619835122199368E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Centro</v>
+          </cell>
+          <cell r="C55">
+            <v>2.2571222381535562E-2</v>
+          </cell>
+          <cell r="D55">
+            <v>3.3234391626607754E-2</v>
+          </cell>
+          <cell r="E55">
+            <v>5.5228406078285344E-2</v>
+          </cell>
+          <cell r="F55">
+            <v>4.9284114969318872E-2</v>
+          </cell>
+          <cell r="G55">
+            <v>5.8300827536054291E-2</v>
+          </cell>
+          <cell r="H55">
+            <v>1.8530012881291726E-2</v>
+          </cell>
+          <cell r="I55">
+            <v>3.2150531139258171E-2</v>
+          </cell>
+          <cell r="J55">
+            <v>2.0611498543504858E-2</v>
+          </cell>
+          <cell r="K55">
+            <v>1.431737514981744E-2</v>
+          </cell>
+          <cell r="L55">
+            <v>5.5853733015012424E-2</v>
+          </cell>
+          <cell r="M55">
+            <v>1.8513471950793087E-2</v>
+          </cell>
+          <cell r="N55">
+            <v>2.3758522216208514E-2</v>
+          </cell>
+          <cell r="O55">
+            <v>4.4738477237091331E-2</v>
+          </cell>
+          <cell r="P55">
+            <v>2.0261828151352173E-2</v>
+          </cell>
+          <cell r="Q55">
+            <v>1.6065757941984917E-2</v>
+          </cell>
+          <cell r="R55">
+            <v>2.3758522216208514E-2</v>
+          </cell>
+          <cell r="S55">
+            <v>2.7255199807127949E-2</v>
+          </cell>
+          <cell r="T55">
+            <v>2.7255199807127949E-2</v>
+          </cell>
+          <cell r="U55">
+            <v>3.4248526022167478E-2</v>
+          </cell>
+          <cell r="V55">
+            <v>2.7255199807127949E-2</v>
+          </cell>
+          <cell r="W55">
+            <v>1.5016730206579345E-2</v>
+          </cell>
+          <cell r="X55">
+            <v>4.8681299193521529E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2847,7 +3129,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
